--- a/evaluation/results/one_svm/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/evaluation_metrics.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\acl322\independent\IR-anomaly-detection\evaluation\results\one_svm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC04F77-AC21-4AA8-9229-640F72EB443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Classification Report" sheetId="2" r:id="rId2"/>
     <sheet name="Confusion Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -99,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,21 +157,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,10 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,23 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,36 +483,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.56261022927689597</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="C2">
-        <v>0.72608695652173916</v>
+        <v>0.6846846846846847</v>
       </c>
       <c r="D2">
-        <v>0.27833333333333332</v>
+        <v>0.2846441947565543</v>
       </c>
       <c r="E2">
-        <v>0.40240963855421691</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="F2">
-        <v>0.58017790262172286</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="G2">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J2">
-        <v>433</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -546,19 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -572,89 +542,89 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.52101769911504425</v>
+        <v>0.5484633569739953</v>
       </c>
       <c r="C2">
-        <v>0.8820224719101124</v>
+        <v>0.8689138576779026</v>
       </c>
       <c r="D2">
-        <v>0.65507649513212796</v>
+        <v>0.672463768115942</v>
       </c>
       <c r="E2">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.72608695652173916</v>
+        <v>0.6846846846846847</v>
       </c>
       <c r="C3">
-        <v>0.27833333333333332</v>
+        <v>0.2846441947565543</v>
       </c>
       <c r="D3">
-        <v>0.40240963855421691</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="E3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.56261022927689597</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="C4">
-        <v>0.56261022927689597</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="D4">
-        <v>0.56261022927689597</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="E4">
-        <v>0.56261022927689597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.5767790262172284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.62355232781839165</v>
+        <v>0.61657402082934</v>
       </c>
       <c r="C5">
-        <v>0.58017790262172286</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="D5">
-        <v>0.5287430668431724</v>
+        <v>0.537290085116172</v>
       </c>
       <c r="E5">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.62951995171117914</v>
+        <v>0.61657402082934</v>
       </c>
       <c r="C6">
-        <v>0.56261022927689597</v>
+        <v>0.5767790262172284</v>
       </c>
       <c r="D6">
-        <v>0.52139032763058768</v>
+        <v>0.537290085116172</v>
       </c>
       <c r="E6">
-        <v>1134</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -663,19 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -683,26 +648,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
